--- a/BD/Gufos.xlsx
+++ b/BD/Gufos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fic\Desktop\Gufos\BD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CFC34E-2789-4CE0-A445-DC7424533EF8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6A9231-0CBF-4045-AE63-3DDF56135FD8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{DA5B84F6-2391-4358-A9B0-C5B276F4C188}"/>
   </bookViews>
@@ -274,6 +274,50 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,50 +327,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52793064-64B8-45F1-9B39-C19175C35EC0}">
   <dimension ref="A1:AA43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.21875" customWidth="1"/>
     <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
@@ -671,12 +671,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="1"/>
       <c r="L1" s="1"/>
       <c r="S1" s="1"/>
@@ -688,10 +688,10 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -700,10 +700,10 @@
       <c r="B3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="27"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -712,23 +712,23 @@
       <c r="B4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="27"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="B6" s="29"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
       <c r="Y6" s="7"/>
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
@@ -740,8 +740,8 @@
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
       <c r="Y7" s="7"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
@@ -753,8 +753,8 @@
       <c r="B8" s="3"/>
       <c r="D8" s="7"/>
       <c r="E8" s="5"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
       <c r="J8" s="7"/>
       <c r="M8" s="8"/>
       <c r="N8" s="4"/>
@@ -805,6 +805,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="E11" s="12"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
@@ -827,8 +828,8 @@
       <c r="R12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
@@ -837,12 +838,12 @@
       <c r="R13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -913,11 +914,11 @@
       <c r="D20" s="2"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -948,13 +949,13 @@
       <c r="C26" s="11"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
@@ -1010,17 +1011,17 @@
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E36" s="15"/>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -1086,15 +1087,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
